--- a/matrix/executed/windows/login/login_password_execute.xlsx
+++ b/matrix/executed/windows/login/login_password_execute.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C08DB0E2-65AE-44FC-BE9C-02D0CEA1DF4E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB267A95-8F1C-4FBF-9AFA-0F74173F18E0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Date</t>
   </si>
@@ -294,11 +294,127 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp30.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp31.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp32.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp33.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp34.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp35.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp36.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp37.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp38.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp39.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp40.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp41.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp42.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp43.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp44.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp45.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp46.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp47.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp48.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp49.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp50.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp51.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp52.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp53.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp54.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp55.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp56.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp57.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp58.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
@@ -333,7 +449,7 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -343,7 +459,7 @@
                   <a14:compatExt spid="_x0000_s1025"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11E2E661-D141-4EBE-A1B9-A191333CB81D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -400,7 +516,7 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -410,7 +526,7 @@
                   <a14:compatExt spid="_x0000_s1026"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F963AF5D-DE04-471C-81B3-1C64B171ACD9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -467,7 +583,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -477,7 +593,7 @@
                   <a14:compatExt spid="_x0000_s1027"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C216D670-5A9E-42CA-B9EA-DD9252B43797}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -534,7 +650,7 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -544,7 +660,7 @@
                   <a14:compatExt spid="_x0000_s1028"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C5F6470-F599-4B57-A0CF-3B6F278A2D84}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -601,7 +717,7 @@
           <xdr:col>6</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -611,7 +727,7 @@
                   <a14:compatExt spid="_x0000_s1029"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E227688-DBC9-47A4-88E2-308E76C996E8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -668,7 +784,7 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -678,7 +794,7 @@
                   <a14:compatExt spid="_x0000_s1030"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DE2F6A5-2E16-4895-865F-5374C5CA9FAD}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -735,7 +851,7 @@
           <xdr:col>8</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -745,7 +861,7 @@
                   <a14:compatExt spid="_x0000_s1031"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C825FA37-6BAB-4684-8AF9-05B97D2A0056}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -802,7 +918,7 @@
           <xdr:col>9</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -812,7 +928,7 @@
                   <a14:compatExt spid="_x0000_s1032"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7884DB1-918B-4C3B-A092-5121625B9E29}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -869,7 +985,7 @@
           <xdr:col>10</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -879,7 +995,7 @@
                   <a14:compatExt spid="_x0000_s1033"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7707766E-3848-4031-B918-C606FEB1852C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -936,7 +1052,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -946,7 +1062,7 @@
                   <a14:compatExt spid="_x0000_s1034"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73B2B74A-4D75-49F0-8E56-A39263F685EA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1003,7 +1119,7 @@
           <xdr:col>12</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1013,7 +1129,7 @@
                   <a14:compatExt spid="_x0000_s1035"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7E72568-244C-4AC7-BC54-F0C7EF09266C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1070,7 +1186,7 @@
           <xdr:col>13</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1080,7 +1196,7 @@
                   <a14:compatExt spid="_x0000_s1036"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46246F26-815F-4ABE-AB33-7E6FCB8DD40F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1137,7 +1253,7 @@
           <xdr:col>12</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1147,7 +1263,7 @@
                   <a14:compatExt spid="_x0000_s1037"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B146ED4-A430-44C0-B02D-81697E89CB4B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1204,7 +1320,7 @@
           <xdr:col>13</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1214,7 +1330,7 @@
                   <a14:compatExt spid="_x0000_s1038"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3097235-964C-43A3-B4EA-8A11B21266B3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1271,7 +1387,7 @@
           <xdr:col>14</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1281,7 +1397,7 @@
                   <a14:compatExt spid="_x0000_s1039"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3148EE0-69B3-40DB-B10C-9C3D75636AE2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1338,7 +1454,7 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1348,7 +1464,7 @@
                   <a14:compatExt spid="_x0000_s1040"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA3AB50E-1736-4DF4-ACEC-03E0FAF59264}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1405,7 +1521,7 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1415,7 +1531,7 @@
                   <a14:compatExt spid="_x0000_s1041"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE06ED00-3041-4E78-B2C1-CC0E4B0BF254}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1472,7 +1588,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1482,7 +1598,7 @@
                   <a14:compatExt spid="_x0000_s1042"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CE2E7DD-7A9D-4C0C-B6C6-85EE9EA61C05}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1539,7 +1655,7 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1549,7 +1665,7 @@
                   <a14:compatExt spid="_x0000_s1043"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8ABBAFF-6C3F-4CFD-9652-DA9CC66550A9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1606,7 +1722,7 @@
           <xdr:col>6</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1616,7 +1732,7 @@
                   <a14:compatExt spid="_x0000_s1044"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE932C94-48B0-4924-B423-C65D94523FAA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1673,7 +1789,7 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1683,7 +1799,7 @@
                   <a14:compatExt spid="_x0000_s1045"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5F5C016-E68A-438A-A8F7-86BE65470756}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1740,7 +1856,7 @@
           <xdr:col>8</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1750,7 +1866,7 @@
                   <a14:compatExt spid="_x0000_s1046"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D27BB5E7-9BC9-4A90-800B-ACAD4AFFA105}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1807,7 +1923,7 @@
           <xdr:col>9</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1817,7 +1933,7 @@
                   <a14:compatExt spid="_x0000_s1047"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29BED4F4-A428-40F9-A17D-D87F595CC00A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1874,7 +1990,7 @@
           <xdr:col>10</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1884,7 +2000,7 @@
                   <a14:compatExt spid="_x0000_s1048"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13724131-4269-42B2-AAB0-F216F89639E8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1941,7 +2057,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1951,7 +2067,7 @@
                   <a14:compatExt spid="_x0000_s1049"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C216226-E96A-496A-955C-D589968DB808}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2008,7 +2124,7 @@
           <xdr:col>12</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2018,7 +2134,7 @@
                   <a14:compatExt spid="_x0000_s1050"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDE40670-CB4C-4D05-8056-6FE2D67C9BC4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2075,7 +2191,7 @@
           <xdr:col>13</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2085,7 +2201,7 @@
                   <a14:compatExt spid="_x0000_s1051"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D3FB4C5-6E5A-468D-9E6B-47E72D033744}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2142,7 +2258,7 @@
           <xdr:col>12</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2152,7 +2268,7 @@
                   <a14:compatExt spid="_x0000_s1052"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40E3B083-3DAC-452E-A8E6-D85B35D4E586}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2209,7 +2325,7 @@
           <xdr:col>13</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2219,7 +2335,7 @@
                   <a14:compatExt spid="_x0000_s1053"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D9089A0-FE6B-4088-BF60-17F1FE929B29}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2260,6 +2376,1804 @@
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1054" name="Check Box 30" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1054"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41E6E69D-F627-4EDA-8CC5-65B876DDFB14}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1055" name="Check Box 31" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1055"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{732B3AD6-606D-418B-A743-6EB6741A4B51}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1056" name="Check Box 32" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1056"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53F30C24-3029-4E10-B338-A43DC414E2C5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1057" name="Check Box 33" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1057"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBEA1EE7-647E-4E25-8CC6-79D7BE0F01AE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1058" name="Check Box 34" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1058"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88EB602F-DB52-4661-9B05-DBB0EC9432C4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1059" name="Check Box 35" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1059"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A6E0B68-460D-4757-A41E-56823789EDDA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1060" name="Check Box 36" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1060"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC850D42-A645-4825-B642-CF04E6C38F7B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1061" name="Check Box 37" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1061"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE5DCD16-61A7-44F1-9771-D87CD4BA4597}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1062" name="Check Box 38" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1062"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{598825D1-0039-4D9D-A33E-C314801D44BC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1063" name="Check Box 39" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1063"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4E30A4D-190D-4EDF-B206-324C44B54AF6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1064" name="Check Box 40" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1064"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B4AEBDD-FC5E-4CC1-9C82-D9682DADCABD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1065" name="Check Box 41" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1065"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74DFF9D4-6607-4B77-8A8D-BE8C77F930A1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1066" name="Check Box 42" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1066"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46844FF2-BEAB-4DCB-A094-E98BB498484B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1067" name="Check Box 43" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1067"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF580F8E-8A62-4786-836F-C37E27BFA880}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1068" name="Check Box 44" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1068"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7230541-40A1-47E1-8A74-940D3F9B75BA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1069" name="Check Box 45" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1069"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86A7F0D7-F925-4DDE-A0B7-F339A29EBDCA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1070" name="Check Box 46" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1070"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F05BC760-0897-4F28-A280-AFD6A5B8BD3F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1071" name="Check Box 47" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1071"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{160F5661-C96C-4F45-87A1-94A2EAABD762}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1072" name="Check Box 48" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1072"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4978C3A7-AE28-4DC0-B7E9-424F2C869312}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1073" name="Check Box 49" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1073"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D41A0CEE-0918-4BA5-A45F-472341AC62D8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1074" name="Check Box 50" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1074"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2451FCBB-279F-42E8-9069-BAE9A900B681}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1075" name="Check Box 51" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1075"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B63CEB6-30AF-4DF2-A61C-2DB51B4A97FA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1076" name="Check Box 52" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1076"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F674D44-2310-4CD6-B838-1C7D5602088A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1077" name="Check Box 53" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1077"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58539E85-E271-4853-8B52-FA115B316D99}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1078" name="Check Box 54" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1078"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F11A048B-849F-4724-96CD-5AFBB74EC27B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1079" name="Check Box 55" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1079"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EA14D75-0952-4776-95FA-3183EEDBD586}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1080" name="Check Box 56" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1080"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B95E68F-C54C-40A3-B5CF-227225E32D51}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1081" name="Check Box 57" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1081"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA7BC41E-1648-4BF4-B846-8ABFEE6F20F3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1082" name="Check Box 58" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1082"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B9FCE1D-7A5B-4C64-A56D-4313A299BA04}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -2529,10 +4443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:O4"/>
+  <dimension ref="B1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2651,6 +4565,122 @@
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
+    </row>
+    <row r="6" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="3">
+        <v>45313</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+    </row>
+    <row r="9" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3297,6 +5327,644 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1054" r:id="rId32" name="Check Box 30">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1055" r:id="rId33" name="Check Box 31">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1056" r:id="rId34" name="Check Box 32">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1057" r:id="rId35" name="Check Box 33">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1058" r:id="rId36" name="Check Box 34">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1059" r:id="rId37" name="Check Box 35">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1060" r:id="rId38" name="Check Box 36">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1061" r:id="rId39" name="Check Box 37">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1062" r:id="rId40" name="Check Box 38">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1063" r:id="rId41" name="Check Box 39">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1064" r:id="rId42" name="Check Box 40">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1065" r:id="rId43" name="Check Box 41">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1066" r:id="rId44" name="Check Box 42">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1067" r:id="rId45" name="Check Box 43">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1068" r:id="rId46" name="Check Box 44">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1069" r:id="rId47" name="Check Box 45">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1070" r:id="rId48" name="Check Box 46">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1071" r:id="rId49" name="Check Box 47">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1072" r:id="rId50" name="Check Box 48">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1073" r:id="rId51" name="Check Box 49">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1074" r:id="rId52" name="Check Box 50">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1075" r:id="rId53" name="Check Box 51">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1076" r:id="rId54" name="Check Box 52">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1077" r:id="rId55" name="Check Box 53">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1078" r:id="rId56" name="Check Box 54">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1079" r:id="rId57" name="Check Box 55">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1080" r:id="rId58" name="Check Box 56">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1081" r:id="rId59" name="Check Box 57">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1082" r:id="rId60" name="Check Box 58">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
       </controls>
     </mc:Choice>
   </mc:AlternateContent>
